--- a/biology/Zoologie/Erinnyis_ello/Erinnyis_ello.xlsx
+++ b/biology/Zoologie/Erinnyis_ello/Erinnyis_ello.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erinnyis ello est une espèce d'insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Dilophonotini, de la sous-tribu des Dilophonotina et du genre Erinnyis. C'est l'espèce type pour le genre.
 </t>
@@ -511,15 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Erinnyis ello a été décrite par le naturaliste suédois Carl von Linné en 1758[1], sous le nom initial de Sphinx ello.
-Synonymie
-Sphinx ello (Linné) Protonyme
-Anceryx ello Walker, 1856 [2]
-Dilophonota ello Godman &amp; Salvin, 1881[3]
-Erinnyis cinifera Zikán, 1934
-Erinnyis ello omorfia (Mooser, 1942)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce Erinnyis ello a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Sphinx ello.</t>
         </is>
       </c>
     </row>
@@ -544,10 +552,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sphinx ello (Linné) Protonyme
+Anceryx ello Walker, 1856 
+Dilophonota ello Godman &amp; Salvin, 1881
+Erinnyis cinifera Zikán, 1934
+Erinnyis ello omorfia (Mooser, 1942)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Erinnyis_ello</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erinnyis_ello</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Erinnyis ello ♀ 	MHNT
@@ -556,35 +606,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Erinnyis_ello</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Erinnyis_ello</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des sous-espèces
 Erinnyis ello ello (Linné, 1758)
-Erinnyis ello cantada Kernbach, 1962 [4]
+Erinnyis ello cantada Kernbach, 1962 
 			Erinnyis ello encantada ♂
 			Erinnyis ello encantada ♂ △
 			'Erinnyis ello encantada ♀
@@ -593,33 +645,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Erinnyis_ello</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Erinnyis_ello</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves se développent sur les Euphorbiaceae, notamment Euphorbia pulcherrima[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves se développent sur les Euphorbiaceae, notamment Euphorbia pulcherrima.
 			La chenille sur Manihot esculenta
 </t>
         </is>
